--- a/r/tests/spreadsheet.xlsx
+++ b/r/tests/spreadsheet.xlsx
@@ -15,7 +15,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
+  <si>
+    <t>A spreadsheet that defines tests for R sheets. See `testthat-spreadsheet.R`</t>
+  </si>
+  <si>
+    <t>Write tests in these columns</t>
+  </si>
+  <si>
+    <t>Data used by some tests</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
   <si>
     <t>ABS</t>
   </si>
@@ -1428,11 +1452,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1448,6 +1473,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1501,7 +1533,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1522,1385 +1554,1451 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E468"/>
+  <dimension ref="A1:K477"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A374" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C406" activeCellId="0" sqref="C406"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="J8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <f aca="false">ABS(0)</f>
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">ABS(-1)</f>
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">ABS(-3.14)</f>
         <v>3.14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="K10" s="0" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="K11" s="0" t="n">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="K12" s="0" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <f aca="false">ACOS(1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="J13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="K13" s="0" t="n">
+        <v>0.464</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <f aca="false">ACOSH(1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="J14" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="K14" s="0" t="n">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="K15" s="0" t="n">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="K16" s="0" t="n">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="K17" s="0" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="K18" s="0" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="K19" s="0" t="n">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <f aca="false">AND(0&lt;1)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C21" s="0" t="n">
         <f aca="false">AND(0&gt;1)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D21" s="0" t="n">
         <f aca="false">AND(0&lt;1,1&gt;0)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E21" s="0" t="n">
         <f aca="false">AND(0&lt;1,0&gt;1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="n">
         <f aca="false">ASIN(1)</f>
         <v>1.5707963267949</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="n">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <f aca="false">ASINH(1)</f>
         <v>0.881373587019543</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="n">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <f aca="false">ATAN(1)</f>
         <v>0.785398163397448</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="n">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <f aca="false">ATAN2(1,1)</f>
         <v>0.785398163397448</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <f aca="false">ATAN2(1,0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D28" s="1" t="n">
         <f aca="false">ATAN2(0,1)</f>
         <v>1.5707963267949</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="n">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <f aca="false">ATANH(0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="n">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <f aca="false">AVEDEV(1)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C30" s="1" t="n">
         <f aca="false">AVEDEV(1.1,2.2,3.3)</f>
         <v>0.733333333333333</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D30" s="1" t="n">
         <f aca="false">AVEDEV(1,2,3)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="n">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n">
         <f aca="false">AVERAGE(1)</f>
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C31" s="1" t="n">
         <f aca="false">AVERAGE(1.1,2.2,3.3)</f>
         <v>2.2</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D31" s="1" t="n">
         <f aca="false">AVERAGE(1,2,3)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="n">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">AVERAGEIF(J10:J19,5)</f>
+        <v>5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">AVERAGEIF(J10:J19,5,K10:K19)</f>
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="n">
         <f aca="false">BESSELI(1,1)</f>
         <v>0.565159103992485</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="n">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="n">
         <f aca="false">BESSELJ(1,1)</f>
         <v>0.440050585744933</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="n">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="n">
         <f aca="false">BESSELK(1,1)</f>
         <v>0.601907227223457</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="n">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="n">
         <f aca="false">BESSELY(1,1)</f>
         <v>-0.781212821300289</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="str">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="str">
         <f aca="false">CONCATENATE("foo","bar")</f>
         <v>foobar</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="n">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="n">
         <f aca="false">COS(1)</f>
         <v>0.54030230586814</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1" t="n">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="n">
         <f aca="false">COSH(1)</f>
         <v>1.54308063481524</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="n">
         <f aca="false">EXP(1)</f>
         <v>2.71828182845904</v>
       </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="n">
         <f aca="false">FLOOR(1,1)</f>
         <v>1</v>
       </c>
-      <c r="C169" s="1" t="n">
+      <c r="C178" s="1" t="n">
         <f aca="false">FLOOR(20,3)</f>
         <v>18</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D178" s="0" t="n">
         <f aca="false">FLOOR(0.234,0.01)</f>
         <v>0.23</v>
       </c>
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2909,7 +3007,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2918,7 +3016,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2927,7 +3025,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2936,7 +3034,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2945,7 +3043,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2954,7 +3052,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2963,7 +3061,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2972,7 +3070,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2981,7 +3079,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2990,7 +3088,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2999,7 +3097,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3008,7 +3106,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3017,22 +3115,16 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192" s="1" t="n">
-        <f aca="false">GEOMEAN(1)</f>
-        <v>1</v>
-      </c>
-      <c r="C192" s="1" t="n">
-        <f aca="false">GEOMEAN(1,2,3)</f>
-        <v>1.81712059283214</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3041,7 +3133,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3050,7 +3142,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3059,22 +3151,16 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B196" s="1" t="n">
-        <f aca="false">HARMEAN(1)</f>
-        <v>1</v>
-      </c>
-      <c r="C196" s="1" t="n">
-        <f aca="false">HARMEAN(1,2,3,4)</f>
-        <v>1.92</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3083,7 +3169,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3092,7 +3178,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3101,7 +3187,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3110,16 +3196,22 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <f aca="false">GEOMEAN(1)</f>
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="n">
+        <f aca="false">GEOMEAN(1,2,3)</f>
+        <v>1.81712059283214</v>
+      </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3128,7 +3220,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3137,7 +3229,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3146,16 +3238,22 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <f aca="false">HARMEAN(1)</f>
+        <v>1</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <f aca="false">HARMEAN(1,2,3,4)</f>
+        <v>1.92</v>
+      </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3164,7 +3262,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3173,7 +3271,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3182,7 +3280,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3191,7 +3289,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3200,7 +3298,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3209,7 +3307,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3218,7 +3316,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -3227,7 +3325,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -3236,7 +3334,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3245,7 +3343,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -3254,7 +3352,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -3263,7 +3361,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -3272,7 +3370,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3281,7 +3379,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -3290,7 +3388,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -3299,7 +3397,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -3308,7 +3406,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -3317,7 +3415,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -3326,7 +3424,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -3335,7 +3433,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -3344,7 +3442,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -3353,7 +3451,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -3362,7 +3460,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -3371,7 +3469,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -3380,7 +3478,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -3389,7 +3487,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -3398,7 +3496,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -3407,7 +3505,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -3416,7 +3514,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3425,7 +3523,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -3434,7 +3532,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -3443,7 +3541,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -3452,7 +3550,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -3461,7 +3559,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -3470,7 +3568,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -3479,7 +3577,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -3488,7 +3586,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -3497,7 +3595,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -3506,7 +3604,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -3515,7 +3613,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -3524,7 +3622,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -3533,7 +3631,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -3542,7 +3640,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -3551,7 +3649,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -3560,7 +3658,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -3569,7 +3667,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -3578,7 +3676,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3587,7 +3685,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3596,7 +3694,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3605,7 +3703,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3614,7 +3712,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3623,7 +3721,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3632,7 +3730,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3641,7 +3739,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3650,7 +3748,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -3659,7 +3757,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -3668,7 +3766,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -3677,52 +3775,34 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B264" s="1" t="n">
-        <f aca="false">LN(1)</f>
-        <v>0</v>
-      </c>
-      <c r="C264" s="1" t="n">
-        <f aca="false">LN(100)</f>
-        <v>4.60517018598809</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B265" s="1" t="n">
-        <f aca="false">LOG(1,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C265" s="1" t="n">
-        <f aca="false">LOG(100,2)</f>
-        <v>6.64385618977473</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B266" s="1" t="n">
-        <f aca="false">LOG10(1)</f>
-        <v>0</v>
-      </c>
-      <c r="C266" s="1" t="n">
-        <f aca="false">LOG10(100)</f>
-        <v>2</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -3731,7 +3811,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -3740,7 +3820,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -3749,7 +3829,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -3758,7 +3838,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -3767,7 +3847,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -3776,40 +3856,52 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="B273" s="1" t="n">
+        <f aca="false">LN(1)</f>
+        <v>0</v>
+      </c>
+      <c r="C273" s="1" t="n">
+        <f aca="false">LN(100)</f>
+        <v>4.60517018598809</v>
+      </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="B274" s="1" t="n">
+        <f aca="false">LOG(1,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C274" s="1" t="n">
+        <f aca="false">LOG(100,2)</f>
+        <v>6.64385618977473</v>
+      </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="1" t="n">
-        <f aca="false">MAX(1)</f>
-        <v>1</v>
+        <f aca="false">LOG10(1)</f>
+        <v>0</v>
       </c>
       <c r="C275" s="1" t="n">
-        <f aca="false">MAX(1,2,3)</f>
-        <v>3</v>
+        <f aca="false">LOG10(100)</f>
+        <v>2</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -3818,7 +3910,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -3827,7 +3919,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -3836,7 +3928,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -3845,22 +3937,16 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B280" s="1" t="n">
-        <f aca="false">MEDIAN(1)</f>
-        <v>1</v>
-      </c>
-      <c r="C280" s="1" t="n">
-        <f aca="false">MEDIAN(1,2,3,4)</f>
-        <v>2.5</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -3869,22 +3955,16 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B282" s="1" t="n">
-        <f aca="false">MIN(1)</f>
-        <v>1</v>
-      </c>
-      <c r="C282" s="1" t="n">
-        <f aca="false">MIN(1,2,3)</f>
-        <v>1</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -3893,16 +3973,22 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="B284" s="1" t="n">
+        <f aca="false">MAX(1)</f>
+        <v>1</v>
+      </c>
+      <c r="C284" s="1" t="n">
+        <f aca="false">MAX(1,2,3)</f>
+        <v>3</v>
+      </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -3911,7 +3997,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -3920,7 +4006,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -3929,7 +4015,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -3938,37 +4024,46 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="B289" s="1" t="n">
+        <f aca="false">MEDIAN(1)</f>
+        <v>1</v>
+      </c>
+      <c r="C289" s="1" t="n">
+        <f aca="false">MEDIAN(1,2,3,4)</f>
+        <v>2.5</v>
+      </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B290" s="1" t="n">
-        <f aca="false">MODE(1,2,2)</f>
-        <v>2</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <f aca="false">MIN(1)</f>
+        <v>1</v>
+      </c>
+      <c r="C291" s="1" t="n">
+        <f aca="false">MIN(1,2,3)</f>
+        <v>1</v>
+      </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -3977,7 +4072,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -3986,7 +4081,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -3995,7 +4090,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -4004,7 +4099,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -4013,7 +4108,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -4022,7 +4117,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -4031,16 +4126,19 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B299" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <f aca="false">MODE(1,2,2)</f>
+        <v>2</v>
+      </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -4049,16 +4147,19 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B301" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <f aca="false">MODE(1,2,2)</f>
+        <v>2</v>
+      </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -4067,7 +4168,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -4076,7 +4177,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -4085,7 +4186,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -4094,7 +4195,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -4103,7 +4204,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -4112,7 +4213,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -4121,7 +4222,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -4130,7 +4231,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -4139,7 +4240,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -4148,7 +4249,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -4157,7 +4258,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -4166,7 +4267,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -4175,7 +4276,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -4184,7 +4285,7 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -4193,7 +4294,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -4202,7 +4303,7 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -4211,7 +4312,7 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -4220,7 +4321,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -4229,7 +4330,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -4238,7 +4339,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -4247,7 +4348,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -4256,7 +4357,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -4265,7 +4366,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -4274,7 +4375,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -4283,7 +4384,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -4292,7 +4393,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -4301,7 +4402,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -4310,7 +4411,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -4319,7 +4420,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -4328,7 +4429,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -4337,7 +4438,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -4346,7 +4447,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -4355,7 +4456,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -4364,7 +4465,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -4373,7 +4474,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -4382,7 +4483,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -4391,19 +4492,16 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B339" s="1" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -4412,7 +4510,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -4421,7 +4519,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -4430,7 +4528,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -4439,7 +4537,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -4448,7 +4546,7 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -4457,7 +4555,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -4466,7 +4564,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -4475,16 +4573,19 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B348" s="1"/>
+        <v>346</v>
+      </c>
+      <c r="B348" s="1" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -4493,7 +4594,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -4502,7 +4603,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -4511,7 +4612,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -4520,7 +4621,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -4529,7 +4630,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -4538,7 +4639,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -4547,7 +4648,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -4556,31 +4657,25 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B357" s="2" t="n">
-        <f aca="true">RAND()&lt;1</f>
-        <v>1</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B358" s="2" t="n">
-        <f aca="false">RANDBETWEEN(3,4)&gt;3</f>
-        <v>1</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -4589,7 +4684,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -4598,7 +4693,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -4607,7 +4702,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -4616,7 +4711,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -4625,7 +4720,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -4634,7 +4729,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -4643,25 +4738,31 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B366" s="1"/>
+        <v>364</v>
+      </c>
+      <c r="B366" s="0" t="n">
+        <f aca="true">RAND()&lt;1</f>
+        <v>1</v>
+      </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B367" s="1"/>
+        <v>365</v>
+      </c>
+      <c r="B367" s="0" t="n">
+        <f aca="false">RANDBETWEEN(3,4)&gt;3</f>
+        <v>1</v>
+      </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -4670,22 +4771,16 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B369" s="1" t="n">
-        <f aca="false">ROUND(1.23)</f>
-        <v>1</v>
-      </c>
-      <c r="C369" s="1" t="n">
-        <f aca="false">ROUND(-1.23)</f>
-        <v>-1</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -4694,7 +4789,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -4703,7 +4798,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -4712,7 +4807,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -4721,7 +4816,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -4730,7 +4825,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -4739,7 +4834,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -4748,7 +4843,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -4757,16 +4852,22 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
+        <v>376</v>
+      </c>
+      <c r="B378" s="1" t="n">
+        <f aca="false">ROUND(1.23)</f>
+        <v>1</v>
+      </c>
+      <c r="C378" s="1" t="n">
+        <f aca="false">ROUND(-1.23)</f>
+        <v>-1</v>
+      </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -4775,7 +4876,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -4784,7 +4885,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -4793,7 +4894,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -4802,7 +4903,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -4811,7 +4912,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -4820,7 +4921,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -4829,7 +4930,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -4838,7 +4939,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -4847,7 +4948,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -4856,7 +4957,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -4865,7 +4966,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -4874,7 +4975,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -4883,7 +4984,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -4892,37 +4993,25 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B393" s="1" t="n">
-        <f aca="false">SQRT(1)</f>
-        <v>1</v>
-      </c>
-      <c r="C393" s="1" t="n">
-        <f aca="false">SQRT(100)</f>
-        <v>10</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B394" s="1" t="n">
-        <f aca="false">SQRTPI(2)</f>
-        <v>2.506628274631</v>
-      </c>
-      <c r="C394" s="1" t="n">
-        <f aca="false">SQRTPI(10)</f>
-        <v>5.60499121639793</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -4931,7 +5020,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -4940,7 +5029,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -4949,7 +5038,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -4958,7 +5047,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -4967,7 +5056,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -4976,7 +5065,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -4985,25 +5074,37 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="B402" s="1" t="n">
+        <f aca="false">SQRT(1)</f>
+        <v>1</v>
+      </c>
+      <c r="C402" s="1" t="n">
+        <f aca="false">SQRT(100)</f>
+        <v>10</v>
+      </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="B403" s="1" t="n">
+        <f aca="false">SQRTPI(2)</f>
+        <v>2.506628274631</v>
+      </c>
+      <c r="C403" s="1" t="n">
+        <f aca="false">SQRTPI(10)</f>
+        <v>5.60499121639793</v>
+      </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -5012,22 +5113,16 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B405" s="1" t="n">
-        <f aca="false">SUM(1)</f>
-        <v>1</v>
-      </c>
-      <c r="C405" s="1" t="n">
-        <f aca="false">SUM(1,2,3)</f>
-        <v>6</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -5036,7 +5131,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -5045,7 +5140,7 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -5054,7 +5149,7 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -5063,7 +5158,7 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -5072,7 +5167,7 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -5081,7 +5176,7 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -5090,7 +5185,7 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -5099,16 +5194,22 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
+        <v>412</v>
+      </c>
+      <c r="B414" s="1" t="n">
+        <f aca="false">SUM(1)</f>
+        <v>1</v>
+      </c>
+      <c r="C414" s="1" t="n">
+        <f aca="false">SUM(1,2,3)</f>
+        <v>6</v>
+      </c>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -5117,7 +5218,7 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -5126,7 +5227,7 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -5135,7 +5236,7 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -5144,7 +5245,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -5153,7 +5254,7 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -5162,7 +5263,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -5171,7 +5272,7 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -5180,7 +5281,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -5189,7 +5290,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -5198,7 +5299,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -5207,7 +5308,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -5216,7 +5317,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -5225,7 +5326,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -5234,7 +5335,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -5243,7 +5344,7 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -5252,7 +5353,7 @@
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -5261,7 +5362,7 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -5270,7 +5371,7 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -5279,7 +5380,7 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -5288,7 +5389,7 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -5297,7 +5398,7 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -5306,7 +5407,7 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -5315,7 +5416,7 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -5324,7 +5425,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -5333,7 +5434,7 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -5342,7 +5443,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -5351,7 +5452,7 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -5360,7 +5461,7 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -5369,7 +5470,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -5378,7 +5479,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -5387,7 +5488,7 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -5396,7 +5497,7 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -5405,7 +5506,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -5414,7 +5515,7 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -5423,7 +5524,7 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -5432,7 +5533,7 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -5441,7 +5542,7 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -5450,7 +5551,7 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -5459,7 +5560,7 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -5468,7 +5569,7 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -5477,7 +5578,7 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -5486,7 +5587,7 @@
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -5495,7 +5596,7 @@
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -5504,7 +5605,7 @@
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -5513,7 +5614,7 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -5522,7 +5623,7 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -5531,7 +5632,7 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -5540,7 +5641,7 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -5549,7 +5650,7 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -5558,7 +5659,7 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -5567,7 +5668,7 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -5576,7 +5677,7 @@
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -5585,12 +5686,93 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+      <c r="D469" s="1"/>
+      <c r="E469" s="1"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="E470" s="1"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
+      <c r="E471" s="1"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+      <c r="D472" s="1"/>
+      <c r="E472" s="1"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
+      <c r="E473" s="1"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="1"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
+      <c r="E475" s="1"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+      <c r="E476" s="1"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
+      <c r="E477" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
